--- a/data/trans_camb/P25A_1_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_1_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,6 +656,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -705,6 +766,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -781,6 +872,21 @@
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -823,6 +929,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -861,6 +982,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -923,22 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,17</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,15</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,62</t>
+          <t>-5,35; 3,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,0</t>
+          <t>-8,64; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,61</t>
+          <t>-6,8; 1,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,29</t>
+          <t>-3,19; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,33</t>
+          <t>-5,04; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,14</t>
+          <t>-2,01; 3,48</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 1,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; -0,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 1,44</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-41,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>186,56%</t>
+          <t>-60,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129,79%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,05%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-32,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-37,25%</t>
         </is>
       </c>
     </row>
@@ -1203,10 +1459,25 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 976,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,76</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>1,71; 15,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,17</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 8,73</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1602,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,17 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>187,95%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-5,44%</t>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1367,6 +1683,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,19</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 12,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,98</t>
+          <t>0,0; 16,06</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,06</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,05</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,53</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>106,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>216,41%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>242,54%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>391,26%</t>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,24</t>
+          <t>-0,82; 1,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,85</t>
+          <t>-1,16; 0,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,38</t>
+          <t>-0,23; 2,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,59</t>
+          <t>-0,23; 1,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,05</t>
+          <t>-1,11; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,93</t>
+          <t>-0,11; 2,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 1,11</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 0,19</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 2,09</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>-43,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>239,35%</t>
+          <t>170,78%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>252,27%</t>
+          <t>210,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>105,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>387,11%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>103,1%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-59,52%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>241,53%</t>
         </is>
       </c>
     </row>
@@ -1651,7 +2087,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-81,72; 574,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1661,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,08; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1671,23 +2107,45 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 550,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 585,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-79,48; 896,19</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; 1471,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
